--- a/excel_sheets/Resource_metadata.xlsx
+++ b/excel_sheets/Resource_metadata.xlsx
@@ -491,7 +491,7 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>resource type metadata version 20240812.1</t>
+          <t>resource type metadata version 0.1.0</t>
         </is>
       </c>
       <c r="D1" s="4" t="n"/>

--- a/excel_sheets/Resource_metadata.xlsx
+++ b/excel_sheets/Resource_metadata.xlsx
@@ -491,7 +491,7 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>resource type metadata version 0.1.0</t>
+          <t>metadata_type: resource, metadata_type_version: 0.1.0</t>
         </is>
       </c>
       <c r="D1" s="4" t="n"/>
